--- a/python/2. Feladat (Bevásárlólista)/Javítókulcs 2. feladat.xlsx
+++ b/python/2. Feladat (Bevásárlólista)/Javítókulcs 2. feladat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IKT\Alapvizsga-feladatok\python\2. Feladat (Bevásárlólista)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE420F-9D42-4EA5-B072-D3144F15FB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9FB85-7D3E-4D48-B982-862F8D3CC19A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4035" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Jelen volt</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>A kiírások megfelelnek a mintának.</t>
+  </si>
+  <si>
+    <t>Ha a felhasználó nem számot ad meg, hibaüzenetet kap.</t>
+  </si>
+  <si>
+    <t>Ha a felhasználó nem megfelelő számot ad meg, hibaüzenetet kap.</t>
+  </si>
+  <si>
+    <t>Ha a felhasználó a kilépést választja, leáll a program.</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D042C82-64F6-4C03-BA20-096A29190C18}" type="CELLRANGE">
+                    <a:fld id="{F27757BE-BFB6-4541-9D2B-3CC8590225E1}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2808,7 +2817,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{4A607A9D-41B2-45DC-A66C-EE7179C2E745}" type="VALUE">
+                    <a:fld id="{5A54F268-9041-4F2B-A13D-79DDBFE3ED67}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -2844,7 +2853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFA397DB-4393-41D6-B70A-B01E30DC11B6}" type="CELLRANGE">
+                    <a:fld id="{E375FAC6-7F5D-4F43-A6D3-441595AE07EE}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2854,7 +2863,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{2AB0C861-C0E6-443A-B5FA-6D4D44391079}" type="VALUE">
+                    <a:fld id="{91BD1FA0-3F42-43D5-99D6-8B14E88BF0D8}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -2890,7 +2899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04F61BA6-1E1B-415E-ACC8-1E690465B255}" type="CELLRANGE">
+                    <a:fld id="{93E9CAAC-7861-4B5C-9E58-54764CD2519D}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2900,7 +2909,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{EB6474D3-AC35-4B06-84D5-928BD43A1CDB}" type="VALUE">
+                    <a:fld id="{87944C9E-C4FA-479C-B733-26B313227278}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -4354,10 +4363,10 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4449,9 +4458,15 @@
       <c r="O1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="P1" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>78</v>
+      </c>
       <c r="S1" s="86" t="s">
         <v>75</v>
       </c>
